--- a/实验文档/数据库表.xlsx
+++ b/实验文档/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="build" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="contractor" sheetId="6" r:id="rId6"/>
     <sheet name="user" sheetId="7" r:id="rId7"/>
     <sheet name="comment" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="bid" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>字段</t>
   </si>
@@ -683,6 +683,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>外链到</t>
     </r>
     <r>
@@ -701,6 +706,21 @@
       </rPr>
       <t>表</t>
     </r>
+  </si>
+  <si>
+    <t>bid_id</t>
+  </si>
+  <si>
+    <t>bid_build_id</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>bid_contractor_id</t>
+  </si>
+  <si>
+    <t>承包商id</t>
   </si>
 </sst>
 </file>
@@ -708,9 +728,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -748,6 +768,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -756,18 +798,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,14 +842,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,21 +860,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,7 +880,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,43 +916,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -912,7 +932,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,19 +1028,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,19 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,121 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,6 +1129,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1130,8 +1161,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,11 +1208,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,173 +1229,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1754,8 +1774,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2790,13 +2810,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="29.4285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2816,6 +2839,34 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/实验文档/数据库表.xlsx
+++ b/实验文档/数据库表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>字段</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>承包商id</t>
+  </si>
+  <si>
+    <t>bid_supply_id</t>
+  </si>
+  <si>
+    <t>供应商id</t>
   </si>
 </sst>
 </file>
@@ -729,9 +735,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -769,6 +775,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -776,23 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,20 +802,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -827,29 +810,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,6 +819,21 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -879,8 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,15 +866,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FreeSans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,6 +907,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -932,7 +938,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,55 +1004,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1070,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,97 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,41 +1135,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1178,6 +1149,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,11 +1186,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,146 +1238,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2810,13 +2816,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.4285714285714" customWidth="1"/>
   </cols>
@@ -2869,6 +2875,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
